--- a/年复合收益率计算Excel.xlsx
+++ b/年复合收益率计算Excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxuekai/Desktop/我的文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxuekai/Desktop/我的文件/automatic-investment-plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="28300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>(1+4%)12次方 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年复合收益率计算公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,12 +377,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -456,6 +461,9 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
